--- a/20. Metacasanova (SLE)/Evaluation/Evaluation.xlsx
+++ b/20. Metacasanova (SLE)/Evaluation/Evaluation.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Documents\GitHub\Papers\20. Metacasanova (WAPL)\Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Documents\GitHub\Papers\20. Metacasanova (SLE)\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Functors" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -751,7 +751,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -814,7 +814,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -847,9 +847,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23758062758934603"/>
+          <c:x val="0"/>
           <c:y val="0.76429194897149488"/>
-          <c:w val="0.37056853730774364"/>
+          <c:w val="0.99799579644134462"/>
           <c:h val="0.23570805102850514"/>
         </c:manualLayout>
       </c:layout>
@@ -866,7 +866,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1812,7 +1812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -2964,7 +2964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -3541,11 +3541,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
